--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1311,7 +1311,7 @@
       <c r="F4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>49</v>
       </c>
       <c r="H4" t="s">

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC201911\Desktop\GameJam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC2019 06\Desktop\GameJam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -857,7 +857,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,8 +882,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,11 +938,15 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="8" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="チェック セル" xfId="6" builtinId="23"/>
     <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
     <cellStyle name="メモ" xfId="7" builtinId="10"/>
+    <cellStyle name="警告文" xfId="8" builtinId="11"/>
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="出力" xfId="5" builtinId="21"/>
     <cellStyle name="入力" xfId="4" builtinId="20"/>
@@ -1225,7 +1232,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1416,10 +1423,10 @@
       <c r="F15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1433,10 +1440,10 @@
       <c r="F16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1450,10 +1457,10 @@
       <c r="F17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1470,7 +1477,7 @@
       <c r="G18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1482,7 +1489,7 @@
       <c r="F19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1493,7 +1500,7 @@
       <c r="D20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="4"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC2019 06\Desktop\GameJam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC201907\Desktop\GameJam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -886,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +939,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="8" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,7 +1235,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1342,8 +1345,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="6" t="s">
+    <row r="6" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1"/>
@@ -1355,7 +1358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1367,8 +1370,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D8" s="5" t="s">
-        <v>17</v>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1377,9 +1380,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D9" s="6" t="s">
-        <v>11</v>
+    <row r="9" spans="1:8" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1388,15 +1391,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="14" t="s">
-        <v>63</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H11" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC2019 06\Desktop\GameJam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC201911\Desktop\GameJam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1318,7 +1318,7 @@
       <c r="F4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>49</v>
       </c>
       <c r="H4" t="s">
@@ -1332,13 +1332,13 @@
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       <c r="G6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -622,7 +622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,15 +700,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -857,7 +848,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,11 +873,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,19 +902,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="7" applyFont="1">
@@ -935,18 +920,17 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="8" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="チェック セル" xfId="6" builtinId="23"/>
     <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
     <cellStyle name="メモ" xfId="7" builtinId="10"/>
-    <cellStyle name="警告文" xfId="8" builtinId="11"/>
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="出力" xfId="5" builtinId="21"/>
     <cellStyle name="入力" xfId="4" builtinId="20"/>
@@ -1232,7 +1216,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1292,16 +1276,16 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="H3" t="s">
@@ -1309,13 +1293,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>39</v>
       </c>
       <c r="G4" t="s">
@@ -1326,7 +1310,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1342,33 +1326,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="6" t="s">
+    <row r="6" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D7" s="5" t="s">
+    <row r="7" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D8" s="5" t="s">
-        <v>17</v>
+    <row r="8" spans="1:8" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1377,21 +1365,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="14" t="s">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1413,7 +1395,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1423,14 +1405,14 @@
       <c r="F15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1440,14 +1422,14 @@
       <c r="F16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1457,14 +1439,14 @@
       <c r="F17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1474,39 +1456,38 @@
       <c r="F18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D19" s="15" t="s">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D19" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D20" s="16" t="s">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D21" s="15" t="s">
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D21" s="14" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC201911\Desktop\GameJam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiri\Desktop\git01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1430,7 +1430,7 @@
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="8" t="s">

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -874,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,9 +912,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1">
@@ -1216,7 +1213,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1330,9 +1327,7 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="11" t="s">
         <v>51</v>
@@ -1345,7 +1340,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1"/>
@@ -1354,8 +1349,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="13" t="s">
+    <row r="8" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="1"/>
@@ -1372,14 +1367,14 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1463,8 +1458,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D19" s="14" t="s">
+    <row r="19" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D19" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="8"/>
@@ -1478,16 +1473,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D20" s="15" t="s">
+    <row r="20" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D21" s="14" t="s">
+      <c r="H20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D21" s="13" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1425,7 +1425,7 @@
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="8" t="s">

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -614,6 +614,22 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>リザルトに遷移するタイミングで、画面のものを左下に移動させる</t>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -770,7 +786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -847,6 +863,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -874,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,7 +945,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,7 +1241,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1221,7 +1249,7 @@
     <col min="1" max="1" width="18.09765625" customWidth="1"/>
     <col min="2" max="2" width="28.8984375" customWidth="1"/>
     <col min="3" max="3" width="35.796875" customWidth="1"/>
-    <col min="4" max="4" width="53.19921875" customWidth="1"/>
+    <col min="4" max="4" width="74.8984375" customWidth="1"/>
     <col min="5" max="5" width="47.8984375" customWidth="1"/>
     <col min="6" max="6" width="37.3984375" customWidth="1"/>
     <col min="7" max="7" width="27.796875" customWidth="1"/>
@@ -1340,7 +1368,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1"/>
@@ -1371,7 +1399,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -945,10 +945,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1368,7 +1368,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1"/>
@@ -1381,7 +1381,9 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
@@ -1399,8 +1401,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="15" t="s">
+    <row r="10" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="1"/>
@@ -1459,7 +1461,7 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1489,7 +1491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D19" s="13" t="s">
         <v>34</v>
       </c>
@@ -1504,18 +1506,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D21" s="13" t="s">
         <v>37</v>
       </c>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -631,6 +631,10 @@
     <rPh sb="25" eb="27">
       <t>イドウ</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>モデル：アーム</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -899,7 +903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,9 +950,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,7 +1242,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1287,13 +1288,13 @@
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1304,7 +1305,7 @@
       <c r="D3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -1381,9 +1382,7 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
@@ -1409,6 +1408,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
+    <row r="11" spans="1:8" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D14" s="2" t="s">

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -790,7 +790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -867,15 +867,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -949,7 +940,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1365,12 +1356,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1378,11 +1369,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
@@ -1393,7 +1386,9 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
@@ -1404,16 +1399,17 @@
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D11" s="5" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D14" s="2" t="s">
@@ -1432,7 +1428,7 @@
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1449,7 +1445,7 @@
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -1511,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D20" s="14" t="s">
         <v>38</v>
       </c>
@@ -1522,11 +1518,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D21" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
+      <c r="G21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1242,9 +1242,9 @@
     <col min="2" max="2" width="28.8984375" customWidth="1"/>
     <col min="3" max="3" width="35.796875" customWidth="1"/>
     <col min="4" max="4" width="74.8984375" customWidth="1"/>
-    <col min="5" max="5" width="47.8984375" customWidth="1"/>
-    <col min="6" max="6" width="37.3984375" customWidth="1"/>
-    <col min="7" max="7" width="27.796875" customWidth="1"/>
+    <col min="5" max="5" width="45.296875" customWidth="1"/>
+    <col min="6" max="6" width="39.796875" customWidth="1"/>
+    <col min="7" max="7" width="37.8984375" customWidth="1"/>
     <col min="8" max="8" width="40.59765625" customWidth="1"/>
     <col min="9" max="9" width="42.09765625" customWidth="1"/>
     <col min="10" max="10" width="11.3984375" customWidth="1"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1276,7 +1276,7 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
@@ -1313,7 +1313,7 @@
       <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -1330,7 +1330,7 @@
       <c r="D5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -635,6 +635,51 @@
   </si>
   <si>
     <t>モデル：アーム</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>追加したガラクタのモデルを表示できるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>BGMを再生する</t>
+    <rPh sb="4" eb="6">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>フレームを表示できるようにする。</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ベルトコンベアのおとを実装する</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>BGMの追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>備品がはまった時の音を実装する</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -894,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,6 +986,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1245,7 +1293,7 @@
     <col min="5" max="5" width="45.296875" customWidth="1"/>
     <col min="6" max="6" width="39.796875" customWidth="1"/>
     <col min="7" max="7" width="37.8984375" customWidth="1"/>
-    <col min="8" max="8" width="40.59765625" customWidth="1"/>
+    <col min="8" max="8" width="43.69921875" customWidth="1"/>
     <col min="9" max="9" width="42.09765625" customWidth="1"/>
     <col min="10" max="10" width="11.3984375" customWidth="1"/>
     <col min="11" max="11" width="22.09765625" customWidth="1"/>
@@ -1374,7 +1422,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1386,8 +1434,8 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>56</v>
+      <c r="E9" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1399,9 +1447,6 @@
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -1523,10 +1568,42 @@
         <v>37</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G25" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1411,8 +1411,6 @@
       <c r="E7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
       <c r="H7" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1422,6 @@
       <c r="E8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -1437,8 +1433,6 @@
       <c r="E9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" t="s">
         <v>29</v>
       </c>
@@ -1447,8 +1441,6 @@
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D11" t="s">

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -679,6 +679,26 @@
     <t>備品がはまった時の音を実装する</t>
     <rPh sb="11" eb="13">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>アームが動くときの音</t>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>つめをうごぐが動くときの音</t>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オト</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -988,7 +1008,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1419,8 +1439,8 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>59</v>
+      <c r="E8" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -1430,8 +1450,8 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>71</v>
+      <c r="E9" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
@@ -1447,155 +1467,165 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="2" t="s">
+    <row r="12" spans="1:8" ht="24.6" x14ac:dyDescent="0.45">
+      <c r="D12" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.6" x14ac:dyDescent="0.45">
+      <c r="D13" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="2" t="s">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>4</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D16" s="2" t="s">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D18" s="2" t="s">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>45</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D19" s="13" t="s">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D20" s="14" t="s">
+    <row r="21" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>31</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D21" s="13" t="s">
+    <row r="22" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G23" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G24" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G26" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -693,12 +693,22 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>つめをうごぐが動くときの音</t>
+    <t>つめが動くときの音</t>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>インスタンスが消えるタイミングを設定する</t>
     <rPh sb="7" eb="8">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オト</t>
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -1298,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1309,9 +1319,9 @@
     <col min="1" max="1" width="18.09765625" customWidth="1"/>
     <col min="2" max="2" width="28.8984375" customWidth="1"/>
     <col min="3" max="3" width="35.796875" customWidth="1"/>
-    <col min="4" max="4" width="74.8984375" customWidth="1"/>
-    <col min="5" max="5" width="45.296875" customWidth="1"/>
-    <col min="6" max="6" width="39.796875" customWidth="1"/>
+    <col min="4" max="4" width="52.8984375" customWidth="1"/>
+    <col min="5" max="5" width="57.69921875" customWidth="1"/>
+    <col min="6" max="6" width="47.8984375" customWidth="1"/>
     <col min="7" max="7" width="37.8984375" customWidth="1"/>
     <col min="8" max="8" width="43.69921875" customWidth="1"/>
     <col min="9" max="9" width="42.09765625" customWidth="1"/>
@@ -1326,38 +1336,38 @@
     <col min="18" max="18" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1365,120 +1375,115 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24.6" x14ac:dyDescent="0.45">
-      <c r="D12" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.6" x14ac:dyDescent="0.45">
-      <c r="D13" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1491,7 +1496,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D16" s="2" t="s">
         <v>35</v>
       </c>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC201911\Desktop\GameJam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC2019 06\Desktop\GameJam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1308,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1625,12 +1625,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="4" t="s">
+    <row r="26" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -710,6 +710,24 @@
     <rPh sb="16" eb="18">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>フェードイン、フェードアウトを実装する</t>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>フレームのモデルを完成する</t>
+    <rPh sb="9" eb="11">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ゲームループさせる</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -969,7 +987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,6 +1037,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1310,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1458,16 +1479,25 @@
       <c r="F7" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>63</v>
       </c>
+      <c r="E8" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -720,14 +720,27 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>フレームのモデルを完成する</t>
-    <rPh sb="9" eb="11">
+    <t>ゲームループさせる</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>フレームの完成したモデルを表示させる</t>
+    <rPh sb="5" eb="7">
       <t>カンセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ゲームループさせる</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>アームのつめに色を付ける</t>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -987,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,6 +1053,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1491,13 +1507,13 @@
         <v>63</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
@@ -1507,160 +1523,161 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="I9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D15" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="8" t="s">
+    </row>
+    <row r="19" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G25" s="4" t="s">
+    <row r="21" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G26" s="4" t="s">
+    <row r="22" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1000,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,9 +1053,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:H22"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1523,7 +1520,7 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" t="s">
         <v>78</v>
       </c>
       <c r="I9" t="s">

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -740,6 +740,16 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>完成させたモデルを回転させる</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテン</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -1000,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,9 +1057,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1">
@@ -1342,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1448,8 +1455,8 @@
       <c r="D5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>59</v>
+      <c r="E5" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1469,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>55</v>
@@ -1482,12 +1489,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="24.6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>74</v>
+      <c r="E7" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>72</v>
@@ -1495,16 +1502,19 @@
       <c r="G7" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>77</v>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
@@ -1512,22 +1522,32 @@
       <c r="G8" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="1:9" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>78</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -1559,7 +1579,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
       <c r="E13" t="s">
@@ -1639,8 +1659,8 @@
       <c r="D18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>56</v>
+      <c r="G18" t="s">
+        <v>17</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>58</v>
@@ -1651,30 +1671,18 @@
         <v>68</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G20" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-    </row>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1481,7 +1481,9 @@
       <c r="F6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H6" s="11" t="s">
         <v>51</v>
       </c>
@@ -1496,11 +1498,11 @@
       <c r="E7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>75</v>
+      <c r="G7" t="s">
+        <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>54</v>
@@ -1516,11 +1518,11 @@
       <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>67</v>
@@ -1534,20 +1536,16 @@
         <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
         <v>70</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G10" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D11" s="2" t="s">
         <v>2</v>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1010,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,9 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="5">
       <alignment vertical="center"/>
@@ -1054,9 +1051,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1">
@@ -1349,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1363,7 +1357,7 @@
     <col min="4" max="4" width="52.8984375" customWidth="1"/>
     <col min="5" max="5" width="57.69921875" customWidth="1"/>
     <col min="6" max="6" width="47.8984375" customWidth="1"/>
-    <col min="7" max="7" width="37.8984375" customWidth="1"/>
+    <col min="7" max="7" width="45.8984375" customWidth="1"/>
     <col min="8" max="8" width="43.69921875" customWidth="1"/>
     <col min="9" max="9" width="42.09765625" customWidth="1"/>
     <col min="10" max="10" width="11.3984375" customWidth="1"/>
@@ -1389,7 +1383,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1409,10 +1403,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
@@ -1421,18 +1415,18 @@
       <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>48</v>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
@@ -1441,18 +1435,18 @@
       <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>49</v>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1461,11 +1455,11 @@
       <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
+      <c r="G5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
@@ -1475,17 +1469,17 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
@@ -1495,7 +1489,7 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F7" t="s">
@@ -1505,59 +1499,65 @@
         <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
+      <c r="H8" t="s">
+        <v>70</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="2" t="s">
@@ -1566,7 +1566,7 @@
       <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G12" t="s">
@@ -1583,7 +1583,7 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="s">
@@ -1600,7 +1600,7 @@
       <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G14" t="s">
@@ -1614,10 +1614,10 @@
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G15" t="s">
@@ -1628,11 +1628,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G16" t="s">
@@ -1642,8 +1642,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D17" s="14" t="s">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D17" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G17" t="s">
@@ -1653,15 +1653,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="13" t="s">
+    <row r="18" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1672,15 +1669,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G20" s="4" t="s">
+    <row r="20" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>上口</t>
     <rPh sb="0" eb="2">
@@ -351,10 +351,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>サイレン</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>備品</t>
     <rPh sb="0" eb="2">
       <t>ビヒン</t>
@@ -751,6 +747,62 @@
     <rPh sb="9" eb="11">
       <t>カイテン</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>クラフトシーンの最適化</t>
+    <rPh sb="8" eb="11">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>リザルトの最適化</t>
+    <rPh sb="5" eb="8">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>アームの最適化</t>
+    <rPh sb="4" eb="7">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>スコアの最適化</t>
+    <rPh sb="4" eb="7">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ゲームシーンの最適化</t>
+    <rPh sb="7" eb="10">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>背景の最適化</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ゲームデリートの最適化</t>
+    <rPh sb="8" eb="11">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>サイレン</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -1010,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,9 +1103,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1343,24 +1392,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.09765625" customWidth="1"/>
-    <col min="2" max="2" width="28.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" customWidth="1"/>
-    <col min="4" max="4" width="52.8984375" customWidth="1"/>
-    <col min="5" max="5" width="57.69921875" customWidth="1"/>
-    <col min="6" max="6" width="47.8984375" customWidth="1"/>
-    <col min="7" max="7" width="45.8984375" customWidth="1"/>
-    <col min="8" max="8" width="43.69921875" customWidth="1"/>
-    <col min="9" max="9" width="42.09765625" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.3984375" customWidth="1"/>
+    <col min="3" max="3" width="58.69921875" customWidth="1"/>
+    <col min="4" max="4" width="60.8984375" customWidth="1"/>
+    <col min="5" max="5" width="36.09765625" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="45.296875" customWidth="1"/>
+    <col min="9" max="9" width="43.19921875" customWidth="1"/>
+    <col min="10" max="10" width="38.19921875" customWidth="1"/>
     <col min="11" max="11" width="22.09765625" customWidth="1"/>
     <col min="12" max="12" width="44.3984375" customWidth="1"/>
     <col min="13" max="13" width="28.19921875" customWidth="1"/>
@@ -1371,307 +1420,319 @@
     <col min="18" max="18" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="25.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
+      <c r="J2" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
       <c r="D3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J4" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="11" t="s">
+    <row r="6" spans="1:10" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="10" t="s">
+    <row r="10" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G10" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" ht="25.2" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24.6" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D11" s="2" t="s">
+    <row r="11" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="2" t="s">
-        <v>35</v>
+    <row r="12" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>36</v>
+    <row r="13" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
+    <row r="14" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
+      <c r="D14" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
       </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H17" t="s">
         <v>30</v>
       </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="4:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="G20" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC201911\Desktop\GameJam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC2019 06\Desktop\GameJam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>68</v>
       </c>
       <c r="H12" t="s">
@@ -1645,7 +1645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="F13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
       <c r="H13" t="s">
@@ -1671,7 +1671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>32</v>
       </c>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1392,9 +1392,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1735,6 +1735,7 @@
         <v>17</v>
       </c>
     </row>
+    <row r="24" spans="8:9" ht="56.4" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC2019 06\Desktop\GameJam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC201911\Desktop\GameJam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1458,7 +1458,7 @@
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>73</v>
       </c>
       <c r="C3" t="s">
@@ -1487,7 +1487,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
@@ -1496,7 +1496,7 @@
       <c r="D4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>76</v>
       </c>
       <c r="C5" t="s">
@@ -1525,7 +1525,7 @@
       <c r="D5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="1" t="s">

--- a/Work Schedule.xlsx
+++ b/Work Schedule.xlsx
@@ -1394,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
